--- a/Data/Species_qaqc3.xlsx
+++ b/Data/Species_qaqc3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bbecker\Projects\PINN_Grazing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440CE54F-7BD5-4C48-9039-0DDD6A413694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA3FF2F-32B2-4178-937D-808A65CC69D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E5C11A6B-4D86-6A43-BA48-4868E951628A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5C11A6B-4D86-6A43-BA48-4868E951628A}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C067F225-CDA5-A24E-AC47-0F3CD5128250}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
@@ -1479,14 +1479,14 @@
         <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>YAG</v>
+        <v>YPG</v>
       </c>
     </row>
     <row r="29" spans="1:6">
